--- a/pred_ohlcv/54_21/2020-01-15 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LINK ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3891.558451749389</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2981.015751749389</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3117.873351749389</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2998.910847658664</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4586.822447658664</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4845.444247658664</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4515.944247658664</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4360.985547658664</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4282.866247658663</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4232.866247658663</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4155.779747658663</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4221.198947658663</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4213.898947658663</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3118.022347658663</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3129.187764085012</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-5339.810264085012</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-11035.18724559101</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-11108.48344559101</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-11738.84174559101</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-11617.87194559101</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5593.417249439168</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5562.859749439168</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3641.598849439168</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3973.876849439168</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4071.329049439168</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4142.507949439168</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3879.061149439168</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4020.756349439168</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-7074.755050560832</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-10155.62845056083</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-11962.43183441227</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-10972.70653441227</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-11194.70653441227</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-11162.77443316679</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-12216.23573316679</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-12342.73653316679</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-10793.00645803621</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-10824.06265803621</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-12239.39905803621</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-9814.309558036211</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-9618.346758036212</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10814.20305803621</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-10046.84433441227</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-15243.03533441227</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-14360.73503441227</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-13302.81563441227</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-9488.913934412265</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>18457.10648034262</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>16886.83548034262</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>13072.40428034262</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>14127.13758034262</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>14127.13758034262</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>14138.13758034262</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>13281.59048034262</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>13282.59048034262</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>17262.45499446354</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>17262.45499446354</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>17309.36059446354</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>18309.36059446354</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>18274.16769446354</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>18458.06699446354</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>18803.79660043964</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17732.07250043964</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>21020.68680043964</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>21020.68680043964</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>21019.02310043964</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21056.52310043964</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1572837.486399004</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1572868.237499004</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1572868.237499004</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1569348.588599004</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1569315.480199004</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1565027.80590426</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1563844.63470426</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1563744.63470426</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1563019.533373642</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1562873.533373642</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1564075.387473642</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1564075.387473642</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1560443.173473642</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1561173.762573642</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1561173.762573642</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1557796.702673642</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1618738.631725491</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1618738.631725491</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1619221.499325491</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1618857.668625491</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1619815.668625491</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1619229.549225491</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1619229.549225491</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1619429.549225491</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1619877.323325491</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1619983.458225491</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1620945.234925491</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1616813.208325491</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1614795.642697719</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1617265.807297719</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1616940.807297719</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1616940.807297719</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>1617837.52009772</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1618100.331797719</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1618197.767297719</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1608806.723897719</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1613915.963140666</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1613898.381740666</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1612842.931440666</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1612815.079940666</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1608463.052840666</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1608522.076840666</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1605245.717440665</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>1603395.536140666</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1603395.536140666</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1572602.868186252</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1572604.068186252</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1573538.420086252</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1574708.046186252</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1576545.032086252</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1578062.584586252</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1578936.145686252</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1578827.205186252</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1578737.972423603</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1576978.281842246</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1579898.146512032</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1579898.146512032</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1585386.268654991</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1587021.627954992</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LINK ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3891.768451749389</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3891.558451749389</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2981.015751749389</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3117.873351749389</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3117.468329473164</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3117.468329473164</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3134.452929473164</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2998.910847658664</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-3821.324947658664</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4586.822447658664</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4845.444247658664</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4515.944247658664</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4360.985547658664</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4282.866247658663</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4232.866247658663</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4155.779747658663</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4221.198947658663</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4213.898947658663</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3118.022347658663</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3069.192319330051</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3088.192319330051</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3007.187864085012</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-6362.482664085012</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9899.54924559101</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-11035.18724559101</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-11108.48344559101</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-11738.84174559101</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-11617.87194559101</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5593.417249439168</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5562.859749439168</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3641.598849439168</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3973.876849439168</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4071.329049439168</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4142.507949439168</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3879.061149439168</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4020.756349439168</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-7074.755050560832</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-10155.62845056083</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-12764.53303441227</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-11962.43183441227</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-10972.70653441227</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-11194.70653441227</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-11162.77443316679</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-12216.23573316679</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-12342.73653316679</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-10793.00645803621</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-10824.06265803621</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-12239.39905803621</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-9076.519058036212</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-9814.309558036211</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-9618.346758036212</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10814.20305803621</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-10046.84433441227</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-15243.03533441227</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-14360.73503441227</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-13302.81563441227</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-9488.913934412265</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>18457.10648034262</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>16886.83548034262</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>13072.40428034262</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>14127.13758034262</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>14127.13758034262</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>14138.13758034262</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>13281.59048034262</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>13282.59048034262</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>17262.45499446354</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>17262.45499446354</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>17309.36059446354</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>18309.36059446354</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>18274.16769446354</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>18458.06699446354</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>18803.79660043964</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17732.07250043964</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>21020.68680043964</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>21020.68680043964</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>21019.02310043964</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21056.52310043964</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1575089.084199005</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1572837.486399004</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1572868.237499004</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1572868.237499004</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1571441.838699004</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1569348.588599004</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1569315.480199004</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1565027.80590426</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1563844.63470426</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1563744.63470426</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1563019.533373642</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1562873.533373642</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1564075.387473642</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1564075.387473642</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1560443.173473642</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1561610.959473643</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1561173.762573642</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1561173.762573642</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1557796.702673642</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1618683.141325491</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1618738.631725491</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1618738.631725491</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1618263.499325491</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1619221.499325491</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1618857.668625491</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1619815.668625491</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1619229.549225491</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1619229.549225491</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1619429.549225491</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1619877.323325491</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1619983.458225491</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1618974.427425491</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1620945.234925491</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1621458.260425491</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1617362.293225491</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1616813.008325491</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>1616813.208325491</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>1614795.642697719</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>1617265.807297719</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>1616940.807297719</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>1616940.807297719</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>1617837.52009772</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1617812.52009772</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1618100.331797719</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1618101.331797719</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1618197.767297719</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1610767.226497719</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1608806.723897719</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1613915.963140666</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1613898.381740666</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1613738.903340666</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1612841.931440666</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1612842.931440666</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1612815.079940666</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>1611043.044040666</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1610800.670340666</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>1608463.052840666</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>1608522.076840666</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1606345.110740666</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1605245.717440665</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1604811.482140665</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>1603311.744440665</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>1603439.260440666</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>1603439.260440666</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>1603395.536140666</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>1603395.536140666</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1572602.868186252</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1572603.068186252</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1572604.068186252</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1572504.068186252</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1572287.376286252</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1573538.420086252</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1574708.046186252</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1576545.032086252</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1578062.584586252</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1578936.145686252</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1578827.205186252</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1578462.711786252</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1578737.972423603</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1576978.281842246</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1579898.146512032</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1579898.146512032</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1585386.268654991</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1587021.627954992</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
